--- a/Datos/Old_Format/2025/01.ENERO/RPT_GESTION_ENERGIA_ENERO_11_2025.xlsx
+++ b/Datos/Old_Format/2025/01.ENERO/RPT_GESTION_ENERGIA_ENERO_11_2025.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
-  <workbookPr defaultThemeVersion="202300"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26015"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\COMPARTIDA_CCONTROL\OPERADORES\RDIAZ\RDIAZ (ccontrol@edificiobancodeoccidente.com.co)_archivos\2025\4.Reportes_2025\3.2.Reporte_Diario_Gestion_Energia\Enero_2025\ENTREGA\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Familia\Documents\Personal\Escuela Pol. Feminista\Feministadística\GitHub\Energy\Datos\Old_Format\2025\01.ENERO\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{903C8243-6042-4775-B2ED-D21863750819}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D130FBFC-14F2-4551-885F-7E23FDF8B7C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" xr2:uid="{BC505377-C4B5-4254-8B25-B9AD0EB1782E}"/>
+    <workbookView xWindow="20370" yWindow="-120" windowWidth="19440" windowHeight="10320" tabRatio="500" xr2:uid="{BC505377-C4B5-4254-8B25-B9AD0EB1782E}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4074" uniqueCount="214">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4068" uniqueCount="208">
   <si>
     <t>Card Number</t>
   </si>
@@ -644,24 +644,6 @@
   </si>
   <si>
     <t>PAULA ANDREA</t>
-  </si>
-  <si>
-    <t>Views</t>
-  </si>
-  <si>
-    <t>Sorts</t>
-  </si>
-  <si>
-    <t>Filter Management</t>
-  </si>
-  <si>
-    <t>Total:</t>
-  </si>
-  <si>
-    <t>Honeywell</t>
-  </si>
-  <si>
-    <t>Page 1/1</t>
   </si>
   <si>
     <t>REPORTE - GESTIÓN ENERGÍA EBO - ENERO 11 2024</t>
@@ -903,39 +885,39 @@
         <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="0E2841"/>
+        <a:srgbClr val="44546A"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="E8E8E8"/>
+        <a:srgbClr val="E7E6E6"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="156082"/>
+        <a:srgbClr val="4472C4"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="E97132"/>
+        <a:srgbClr val="ED7D31"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="196B24"/>
+        <a:srgbClr val="A5A5A5"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="0F9ED5"/>
+        <a:srgbClr val="FFC000"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="A02B93"/>
+        <a:srgbClr val="5B9BD5"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="4EA72E"/>
+        <a:srgbClr val="70AD47"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="467886"/>
+        <a:srgbClr val="0563C1"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="96607D"/>
+        <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Aptos Display" panose="02110004020202020204"/>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -987,7 +969,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Aptos Narrow" panose="02110004020202020204"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -1098,6 +1080,13 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
         <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
@@ -1106,13 +1095,6 @@
           <a:miter lim="800000"/>
         </a:ln>
         <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
-        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -1177,31 +1159,11 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
-  <a:objectDefaults>
-    <a:lnDef>
-      <a:spPr/>
-      <a:bodyPr/>
-      <a:lstStyle/>
-      <a:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </a:style>
-    </a:lnDef>
-  </a:objectDefaults>
+  <a:objectDefaults/>
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{2E142A2C-CD16-42D6-873A-C26D2A0506FA}" vid="{1BDDFF52-6CD6-40A5-AB3C-68EB2F1E4D0A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1211,8 +1173,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D32D3F8F-51DA-4F36-BCC1-C60FA8D52C5D}">
   <dimension ref="A1:M513"/>
   <sheetViews>
-    <sheetView tabSelected="1" showOutlineSymbols="0" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+    <sheetView tabSelected="1" showOutlineSymbols="0" topLeftCell="A500" workbookViewId="0">
+      <selection activeCell="A512" sqref="A512:XFD514"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1235,7 +1197,7 @@
   <sheetData>
     <row r="1" spans="1:13" ht="32.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="6" t="s">
-        <v>213</v>
+        <v>207</v>
       </c>
       <c r="B1" s="6"/>
       <c r="C1" s="6"/>
@@ -20088,30 +20050,9 @@
         <v>20</v>
       </c>
     </row>
-    <row r="512" spans="1:13" ht="15" x14ac:dyDescent="0.2">
-      <c r="A512" s="1" t="s">
-        <v>211</v>
-      </c>
-      <c r="B512" s="1" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="513" spans="1:6" ht="15" x14ac:dyDescent="0.2">
-      <c r="A513" s="1" t="s">
-        <v>207</v>
-      </c>
-      <c r="B513" s="1" t="s">
-        <v>208</v>
-      </c>
-      <c r="C513" s="1" t="s">
-        <v>209</v>
-      </c>
-      <c r="E513" s="1" t="s">
-        <v>210</v>
-      </c>
-      <c r="F513" s="2">
-        <v>509</v>
-      </c>
+    <row r="512" spans="1:13" ht="15" x14ac:dyDescent="0.2"/>
+    <row r="513" spans="6:6" ht="15" x14ac:dyDescent="0.2">
+      <c r="F513" s="2"/>
     </row>
   </sheetData>
   <autoFilter ref="A2:M2" xr:uid="{D32D3F8F-51DA-4F36-BCC1-C60FA8D52C5D}">
